--- a/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5343,4 +5344,4316 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8893</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4311</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1813</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0236</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8990</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5429</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4364</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2553</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1930</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1300</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0659</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8778</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8612</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7523</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5475</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5439</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5241</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4828</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4328</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3816</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3603</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>51.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>66.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501027</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰融信灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002358</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>49.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010832</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰合益混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010833</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国泰合益混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9656,4 +9657,3024 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7316</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2480</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2478</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1866</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1230</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0824</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9828</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8114</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6216</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6013</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5840</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010589</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12677,4 +12678,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>78</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>112</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12686,7 +12687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12697,17 +12698,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12717,14 +12738,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.15</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -12733,14 +12776,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>112</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.28</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -12749,14 +12814,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.91</v>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -12765,13 +12852,4901 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2720</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1871</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1516</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1865</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1827</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0873</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0753</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8948</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8027</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7471</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7259</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6967</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6958</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6863</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5375</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4723</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4500</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010373</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010374</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>129</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>112</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>59</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>17.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17645,7 +17646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17656,17 +17657,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17676,14 +17697,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>129</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45.67</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -17692,14 +17735,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.15</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7785</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -17708,14 +17773,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>112</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50.28</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -17724,14 +17811,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.91</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0624</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -17740,13 +17849,1611 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6653</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3350</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9721</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9242</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8306</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5674</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5290</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4818</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4757</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>129</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>112</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>59</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>17.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19336,7 +19337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19347,17 +19348,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19367,14 +19388,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.86</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -19383,14 +19426,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>129</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.67</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2920</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -19399,14 +19464,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>78</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.15</v>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -19415,14 +19502,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>112</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50.28</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -19431,14 +19540,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.91</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1936</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -19447,13 +19578,3147 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>104.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>61.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0739</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0370</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9966</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9938</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9249</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8341</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6754</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5391</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4969</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4394</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>35.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>129</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>112</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>59</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>17.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>34.9</v>
+        <v>20.94</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>26.86</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>45.67</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D5" t="n">
-        <v>43.15</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D6" t="n">
-        <v>50.28</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D7" t="n">
-        <v>18.91</v>
+        <v>50.28</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>59</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>17.79</v>
       </c>
     </row>
@@ -600,6 +617,3176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5343</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5409</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2997</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7682</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国周期优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7394</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7381</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6409</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6295</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5882</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5600</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>66.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>64.77</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>016780</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3847,7 +7034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5537,7 +8724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10495,7 +13682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13515,7 +16702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17827,7 +21014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20429,7 +23616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600885-宏发股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n">
-        <v>20.94</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>34.9</v>
+        <v>20.94</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>26.86</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>45.67</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D6" t="n">
-        <v>43.15</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D7" t="n">
-        <v>50.28</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D8" t="n">
-        <v>18.91</v>
+        <v>50.28</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2328 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>59</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>17.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5239</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0230</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7489</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2932,3774 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8669</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4484</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9750</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6318</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6314</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6136</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5683</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5674</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5448</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5377</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4714</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>36.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015102</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013676</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013677</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012439</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015103</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>016258</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014112</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>016780</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>016255</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014745</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014744</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3786,7 +9869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7034,7 +13117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8724,7 +14807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13682,7 +19765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16702,7 +22785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21014,7 +27097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23614,2302 +29697,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001790</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>81.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.8460</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160916</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>43.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5239</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001576</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰智能装备股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2989</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000652</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时裕隆灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0321</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000696</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富环保行业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>30.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0230</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001856</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>26.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0112</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000603</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7489</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005726</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6224</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519021</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰金鼎价值混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5327</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009130</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏扬景恒六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>26.76</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27.16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4068</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005352</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏扬景泰成长混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3036</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000778</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华先进制造股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2603</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005642</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2573</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160627</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2413</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002376</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国寿安保核心产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2095</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>210003</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>金鹰行业优势混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.41</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2041</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001521</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国寿安保成长优选股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1950</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010135</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>泰达宏利高研发创新6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1409</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>020015</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国泰区位优势混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.55</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1408</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001672</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国寿安保智慧生活股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1376</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006051</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏扬核心价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1355</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>161033</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>富国中证智能汽车指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1161</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001626</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>国泰央企改革股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1136</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>73.55</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1083</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002311</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1061</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008499</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>鹏扬景科混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>33.73</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1032</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009131</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏扬景恒六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>27.16</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0976</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006013</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0843</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003502</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>金鹰鑫瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0820</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006369</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>弘毅远方国企转型升级混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0758</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003503</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>金鹰鑫瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006644</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>弘毅远方消费升级混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0679</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0621</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008416</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0546</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009613</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0419</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005643</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>162214</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>泰达宏利领先中小盘混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>005353</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鹏扬景泰成长混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0306</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002316</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>009205</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>32.74</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>003241</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>011323</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>008500</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>鹏扬景科混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>33.73</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>99.09</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>006052</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>鹏扬核心价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>006354</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>国泰民裕进取灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>30.39</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>006014</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>009206</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>32.74</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>009614</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>010136</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>泰达宏利高研发创新6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>008417</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>003242</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>011322</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>国泰智能装备股票C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>011324</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>